--- a/doc/10 众包/02 任务单/20160620-01.xlsx
+++ b/doc/10 众包/02 任务单/20160620-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>任务编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,35 @@
   </si>
   <si>
     <t>末级科目（checkbox)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t_subject </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体结构见数据库设计文档</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,59 +379,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +448,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1430456" cy="275717"/>
@@ -476,7 +505,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1614224" cy="459100"/>
@@ -542,15 +571,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -559,8 +588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="2771775"/>
-          <a:ext cx="752475" cy="657225"/>
+          <a:off x="7743825" y="2476500"/>
+          <a:ext cx="1447800" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -592,6 +621,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示“资产、负债”等用</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>Tab</a:t>
@@ -893,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L32"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +937,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,20 +945,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -933,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -941,12 +974,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -954,163 +987,176 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="9" t="s">
+    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="10" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="L20" s="22" t="s">
+      <c r="C20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="L23" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="L21" s="22" t="s">
+    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="L24" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="L22" s="22" t="s">
+    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="L25" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C23" s="17"/>
-      <c r="E23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="L23" s="22" t="s">
+    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="L26" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="17"/>
-      <c r="E25" s="16"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
     <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C29" s="17"/>
-      <c r="E29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C30" s="17"/>
-      <c r="E30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C31" s="17"/>
-      <c r="E31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="C32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H18:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
